--- a/Maintenace_June_2019.xlsx
+++ b/Maintenace_June_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Flats</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Security meter</t>
   </si>
   <si>
-    <t>catalog cloded</t>
-  </si>
-  <si>
     <t>Water usuage Rs.0.25 /litre</t>
   </si>
   <si>
@@ -256,6 +253,18 @@
   </si>
   <si>
     <t>1 cjp 1 saravana</t>
+  </si>
+  <si>
+    <t>Torch Repair</t>
+  </si>
+  <si>
+    <t>previous balance 4460</t>
+  </si>
+  <si>
+    <t>previous balance 1100</t>
+  </si>
+  <si>
+    <t>catalog closed</t>
   </si>
 </sst>
 </file>
@@ -648,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1295,7 +1304,7 @@
         <v>3200</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1306,7 +1315,7 @@
         <v>2500</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1326,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+      <selection activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1647,19 +1656,33 @@
         <v>43646</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>180</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f>SUM(C1:C38)</f>
-        <v>9916</v>
+        <v>10116</v>
       </c>
     </row>
   </sheetData>
@@ -1670,21 +1693,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1695,20 +1718,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1723,21 +1746,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10">
-        <f>(0.25*D2)</f>
+        <f>(0.21*D2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
         <v>1100</v>
       </c>
       <c r="H2" s="10">
-        <f>SUM(F2+G2)</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <f>SUM(F2+G2)+1100</f>
+        <v>2200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1752,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F34" si="1">(0.25*D3)</f>
+        <f t="shared" ref="F3:F33" si="1">(0.21*D3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="10">
@@ -1766,7 +1792,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1783,17 +1809,17 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>2750</v>
+        <v>2310</v>
       </c>
       <c r="G4" s="10">
         <v>1100</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="2"/>
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
@@ -1822,7 +1848,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1">
+    <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1837,19 +1863,19 @@
         <v>11000</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <f t="shared" si="1"/>
-        <v>2750</v>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>2310</v>
       </c>
       <c r="G6" s="11">
         <v>1100</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="13.8" customHeight="1">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1866,17 +1892,17 @@
       <c r="E7" s="11"/>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>6357.5</v>
+        <v>5340.3</v>
       </c>
       <c r="G7" s="10">
         <v>1100</v>
       </c>
       <c r="H7" s="10">
         <f>SUM(F7+G7)-1452.5</f>
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4987.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1893,17 +1919,17 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>6550</v>
+        <v>5502</v>
       </c>
       <c r="G8" s="10">
         <v>1100</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1920,17 +1946,17 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>3300</v>
+        <v>2772</v>
       </c>
       <c r="G9" s="10">
         <v>1100</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1947,17 +1973,17 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>3575</v>
+        <v>3003</v>
       </c>
       <c r="G10" s="10">
         <v>1100</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -1974,17 +2000,17 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>1850</v>
+        <v>1554</v>
       </c>
       <c r="G11" s="10">
         <v>1100</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -2001,17 +2027,17 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>2688</v>
       </c>
       <c r="G12" s="10">
         <v>1100</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -2027,17 +2053,17 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1680</v>
       </c>
       <c r="G13" s="10">
         <v>1100</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
@@ -2054,17 +2080,17 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1875</v>
+        <v>1575</v>
       </c>
       <c r="G14" s="10">
         <v>1100</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="2"/>
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -2078,19 +2104,19 @@
         <v>3000</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>750</v>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>630</v>
       </c>
       <c r="G15" s="12">
         <v>1100</v>
       </c>
       <c r="H15" s="12">
         <f t="shared" si="2"/>
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
@@ -2107,17 +2133,17 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>1932</v>
       </c>
       <c r="G16" s="10">
         <v>1100</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="2"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -2134,17 +2160,17 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>2450</v>
+        <v>2058</v>
       </c>
       <c r="G17" s="10">
         <v>1100</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
@@ -2161,17 +2187,20 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G18" s="10">
         <v>1100</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="2"/>
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f>SUM(F18+G18)+4460</f>
+        <v>5707</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -2188,17 +2217,17 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>2575</v>
+        <v>2163</v>
       </c>
       <c r="G19" s="10">
         <v>1100</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="2"/>
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -2215,17 +2244,17 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3360</v>
       </c>
       <c r="G20" s="10">
         <v>1100</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
@@ -2242,17 +2271,17 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1775</v>
+        <v>1491</v>
       </c>
       <c r="G21" s="10">
         <v>1100</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -2266,19 +2295,19 @@
         <v>15000</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>3150</v>
       </c>
       <c r="G22" s="11">
         <v>1100</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
@@ -2295,17 +2324,17 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2184</v>
       </c>
       <c r="G23" s="10">
         <v>1100</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="2"/>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
@@ -2322,17 +2351,17 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>2940</v>
       </c>
       <c r="G24" s="10">
         <v>1100</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
@@ -2349,17 +2378,17 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>2541</v>
       </c>
       <c r="G25" s="10">
         <v>1100</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
@@ -2376,17 +2405,17 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1008</v>
       </c>
       <c r="G26" s="10">
         <v>1100</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
@@ -2403,17 +2432,17 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>7375</v>
+        <v>6195</v>
       </c>
       <c r="G27" s="10">
         <v>1100</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
-        <v>8475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>7295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
@@ -2430,17 +2459,17 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>3528</v>
       </c>
       <c r="G28" s="10">
         <v>1100</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
@@ -2455,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="1"/>
@@ -2469,7 +2498,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
@@ -2486,17 +2515,17 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2184</v>
       </c>
       <c r="G30" s="10">
         <v>1100</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
@@ -2513,17 +2542,17 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10">
         <f t="shared" si="1"/>
-        <v>3875</v>
+        <v>3255</v>
       </c>
       <c r="G31" s="10">
         <v>1100</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="2"/>
-        <v>4975</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
@@ -2540,14 +2569,14 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="G32" s="10">
         <v>1100</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2567,14 +2596,14 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10">
         <f t="shared" si="1"/>
-        <v>4450</v>
+        <v>3738</v>
       </c>
       <c r="G33" s="10">
         <v>1100</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>5550</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" ht="1.2" customHeight="1">
@@ -2593,7 +2622,7 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F34" si="3">(0.25*D34)</f>
         <v>352.5</v>
       </c>
       <c r="G34" s="11">
@@ -2635,7 +2664,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10">
         <f>SUM(H1:H35)</f>
-        <v>120457.5</v>
+        <v>112376.3</v>
       </c>
     </row>
   </sheetData>

--- a/Maintenace_June_2019.xlsx
+++ b/Maintenace_June_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>Flats</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>catalog closed</t>
+  </si>
+  <si>
+    <t>previous balance 470</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1695,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1704,7 +1707,7 @@
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
@@ -1844,8 +1847,11 @@
         <v>1100</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="2"/>
-        <v>1100</v>
+        <f>SUM(F5+G5)+470</f>
+        <v>1570</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
@@ -2664,7 +2670,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10">
         <f>SUM(H1:H35)</f>
-        <v>112376.3</v>
+        <v>112846.3</v>
       </c>
     </row>
   </sheetData>

--- a/Maintenace_June_2019.xlsx
+++ b/Maintenace_June_2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\660763\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="3"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="22935" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_Report" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_Report!$A$1:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Flats</t>
   </si>
@@ -165,9 +170,6 @@
     <t>Electrical exp</t>
   </si>
   <si>
-    <t>Notebook, document exp</t>
-  </si>
-  <si>
     <t>Locker, Agsha plate</t>
   </si>
   <si>
@@ -180,9 +182,6 @@
     <t>Dustbin Drum</t>
   </si>
   <si>
-    <t>Draningage block (G7)</t>
-  </si>
-  <si>
     <t>Fuse_electrical</t>
   </si>
   <si>
@@ -198,12 +197,6 @@
     <t>Electrical_security cabin exp</t>
   </si>
   <si>
-    <t>31-My-19 Reading</t>
-  </si>
-  <si>
-    <t>Sweeper charges</t>
-  </si>
-  <si>
     <t>2000 different lorry</t>
   </si>
   <si>
@@ -216,15 +209,9 @@
     <t>washing liquid</t>
   </si>
   <si>
-    <t>deducted from maintenance Collecion_Report</t>
-  </si>
-  <si>
     <t>300 balance with driver</t>
   </si>
   <si>
-    <t>Drainage block</t>
-  </si>
-  <si>
     <t>Lift</t>
   </si>
   <si>
@@ -237,15 +224,9 @@
     <t>Security meter</t>
   </si>
   <si>
-    <t>Water usuage Rs.0.25 /litre</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Water usage</t>
-  </si>
-  <si>
     <t>Sand bag filling work</t>
   </si>
   <si>
@@ -255,29 +236,71 @@
     <t>1 cjp 1 saravana</t>
   </si>
   <si>
-    <t>Torch Repair</t>
-  </si>
-  <si>
-    <t>previous balance 4460</t>
-  </si>
-  <si>
-    <t>previous balance 1100</t>
-  </si>
-  <si>
     <t>catalog closed</t>
   </si>
   <si>
-    <t>previous balance 470</t>
+    <t>31-May-19 Reading</t>
+  </si>
+  <si>
+    <t>30_June_Reading</t>
+  </si>
+  <si>
+    <t>Water usage (litre)</t>
+  </si>
+  <si>
+    <t>Water Amount</t>
+  </si>
+  <si>
+    <t>Fixed Amount</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>previous balance due 1100</t>
+  </si>
+  <si>
+    <t>previous balancedue 470</t>
+  </si>
+  <si>
+    <t>previous balance due 4460</t>
+  </si>
+  <si>
+    <t>Sweeper charges (monthly)</t>
+  </si>
+  <si>
+    <t>Drainage block work</t>
+  </si>
+  <si>
+    <t>Torchlight - Security</t>
+  </si>
+  <si>
+    <t>Draninage block (G7)</t>
+  </si>
+  <si>
+    <t>Meter Reading</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EB_Expense</t>
+  </si>
+  <si>
+    <t>Security Salary</t>
+  </si>
+  <si>
+    <t>Sweeper Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +323,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +362,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,28 +399,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +514,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,21 +725,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,12 +753,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -701,7 +769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -712,7 +780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -726,7 +794,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -740,7 +808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -751,7 +819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -762,7 +830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -773,7 +841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -784,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -795,7 +863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -806,7 +874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -817,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -828,7 +896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -839,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -850,7 +918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -861,12 +929,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -877,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -888,7 +956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -899,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -910,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -921,7 +989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -932,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -943,7 +1011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -954,7 +1022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -965,7 +1033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -976,7 +1044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -987,7 +1055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -998,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1009,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1039,7 +1107,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1056,20 +1124,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>43617</v>
       </c>
@@ -1077,7 +1145,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43618</v>
       </c>
@@ -1085,7 +1153,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43619</v>
       </c>
@@ -1093,7 +1161,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43620</v>
       </c>
@@ -1101,7 +1169,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43621</v>
       </c>
@@ -1109,7 +1177,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43622</v>
       </c>
@@ -1117,7 +1185,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43623</v>
       </c>
@@ -1125,7 +1193,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43624</v>
       </c>
@@ -1133,7 +1201,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43625</v>
       </c>
@@ -1141,7 +1209,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43626</v>
       </c>
@@ -1149,7 +1217,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43627</v>
       </c>
@@ -1157,7 +1225,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43628</v>
       </c>
@@ -1165,7 +1233,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43629</v>
       </c>
@@ -1173,7 +1241,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43630</v>
       </c>
@@ -1181,7 +1249,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43631</v>
       </c>
@@ -1189,7 +1257,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43632</v>
       </c>
@@ -1197,7 +1265,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43633</v>
       </c>
@@ -1205,7 +1273,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43634</v>
       </c>
@@ -1213,7 +1281,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43635</v>
       </c>
@@ -1221,7 +1289,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43636</v>
       </c>
@@ -1229,7 +1297,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43637</v>
       </c>
@@ -1237,7 +1305,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43638</v>
       </c>
@@ -1245,7 +1313,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43639</v>
       </c>
@@ -1253,7 +1321,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43640</v>
       </c>
@@ -1261,10 +1329,10 @@
         <v>3400</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43641</v>
       </c>
@@ -1272,7 +1340,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43642</v>
       </c>
@@ -1280,7 +1348,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43643</v>
       </c>
@@ -1288,10 +1356,10 @@
         <v>3400</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43644</v>
       </c>
@@ -1299,7 +1367,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43645</v>
       </c>
@@ -1307,10 +1375,10 @@
         <v>3200</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43646</v>
       </c>
@@ -1318,10 +1386,10 @@
         <v>2500</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1337,1362 +1405,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>43617</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>43618</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>43619</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>43620</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>43621</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>43622</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>43622</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C7" s="7">
+        <v>235</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>43623</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>115</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>43624</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>43625</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7">
+        <v>200</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>43625</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C8">
+      <c r="C11" s="7">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>43625</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>43625</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7">
+        <v>300</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>43625</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>43626</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>43627</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7">
+        <v>200</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>43628</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>43629</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>43630</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8">
+        <v>550</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>43631</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>43632</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>43633</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>43634</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="7">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>43635</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>43636</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>43637</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>43638</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>43639</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>43640</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>43641</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="8">
+        <v>200</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>43641</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1900</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>43642</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>43643</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>43644</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2050</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>43645</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="7">
+        <v>180</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="7">
+        <v>200</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7">
+        <f>SUM(C1:C37)</f>
+        <v>10116</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>43623</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11">
+      <c r="B40" s="19">
+        <v>43617</v>
+      </c>
+      <c r="C40" s="19">
+        <v>43646</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3982</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4072</v>
+      </c>
+      <c r="D41" s="7">
+        <f>C41-B41</f>
+        <v>90</v>
+      </c>
+      <c r="E41" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>43627</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>43628</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>43629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1">
-      <c r="A20" s="3">
-        <v>43630</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4">
-        <v>550</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>43631</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>43632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <v>43633</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>43634</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <v>43636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
-        <v>43637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
-        <v>43639</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <v>43640</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1">
-      <c r="A31" s="3">
-        <v>43641</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1">
-      <c r="A32" s="5">
-        <v>43641</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>43642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>43643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43644</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>43645</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B42" s="7">
+        <v>54948</v>
+      </c>
+      <c r="C42" s="7">
+        <v>55487</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" ref="D42" si="0">C42-B42</f>
+        <v>539</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C40">
-        <f>SUM(C1:C38)</f>
-        <v>10116</v>
+      <c r="E47" s="7">
+        <f>SUM(E41:E46)</f>
+        <v>29400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>21000</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>21000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D34" si="0">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7">
         <f>(0.21*D2)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="G2" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H2" s="7">
         <f>SUM(F2+G2)+1100</f>
         <v>2200</v>
       </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>67700</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>67700</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F33" si="1">(0.21*D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H34" si="2">SUM(F3+G3)</f>
         <v>1100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>29100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>40100</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="G4" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="2"/>
         <v>3410</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>79100</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>79100</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H5" s="7">
         <f>SUM(F5+G5)+470</f>
         <v>1570</v>
       </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>35000</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>46000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="G6" s="11">
-        <v>1100</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="8">
         <f t="shared" si="2"/>
         <v>3410</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>54100</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>79530</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>25430</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10">
+      <c r="E7" s="8"/>
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>5340.3</v>
       </c>
-      <c r="G7" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="7">
         <f>SUM(F7+G7)-1452.5</f>
         <v>4987.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>59300</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>85500</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>26200</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>5502</v>
       </c>
-      <c r="G8" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>6602</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>27100</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>40300</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>2772</v>
       </c>
-      <c r="G9" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>235800</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>250100</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>14300</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>3003</v>
       </c>
-      <c r="G10" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>4103</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>224300</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>231700</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>7400</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>1554</v>
       </c>
-      <c r="G11" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>2654</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>2100</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>14900</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>2688</v>
       </c>
-      <c r="G12" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="G12" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>3788</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>326000</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>326000</v>
       </c>
-      <c r="D13" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="D13" s="7">
+        <v>8200</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>1680</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H13" s="10">
+        <v>1722</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
+        <v>2822</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>46300</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>53800</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>1575</v>
       </c>
-      <c r="G14" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>2675</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1">
-      <c r="A15" s="12" t="s">
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>92600</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>92620</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>3000</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10">
+      <c r="E15" s="9"/>
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="G15" s="12">
-        <v>1100</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="9">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>1730</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>72200</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>81400</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>1932</v>
       </c>
-      <c r="G16" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>3032</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>32400</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>42200</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>2058</v>
       </c>
-      <c r="G17" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="G17" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>3158</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>8100</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>8800</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="G18" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G18" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H18" s="7">
         <f>SUM(F18+G18)+4460</f>
         <v>5707</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>2800</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>13100</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>10300</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>2163</v>
       </c>
-      <c r="G19" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G19" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>3263</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>9100</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>25100</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="G20" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G20" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>4460</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>371900</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>379000</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>1491</v>
       </c>
-      <c r="G21" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="2"/>
         <v>2591</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1">
-      <c r="A22" s="11" t="s">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>290800</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>290800</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>15000</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10">
+      <c r="E22" s="8"/>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="G22" s="11">
-        <v>1100</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="G22" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="2"/>
         <v>4250</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10" t="s">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>35100</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>45500</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="G23" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G23" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="2"/>
         <v>3284</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>96100</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>110100</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
         <v>2940</v>
       </c>
-      <c r="G24" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="G24" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="2"/>
         <v>4040</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>51400</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>63500</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>12100</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
         <f t="shared" si="1"/>
         <v>2541</v>
       </c>
-      <c r="G25" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="G25" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="2"/>
         <v>3641</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>54100</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>58900</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="G26" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="G26" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="2"/>
         <v>2108</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>344900</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>374400</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
         <f t="shared" si="1"/>
         <v>6195</v>
       </c>
-      <c r="G27" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="G27" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="2"/>
         <v>7295</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>183400</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>200200</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>16800</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
         <v>3528</v>
       </c>
-      <c r="G28" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="G28" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="2"/>
         <v>4628</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>168500</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>168500</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="E29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="G29" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>298700</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>309100</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="7">
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="G30" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" si="2"/>
         <v>3284</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>341000</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>356500</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
         <f t="shared" si="1"/>
         <v>3255</v>
       </c>
-      <c r="G31" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="G31" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="2"/>
         <v>4355</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>29600</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>31400</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
-      <c r="G32" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="G32" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H32" s="7">
         <f t="shared" si="2"/>
         <v>1478</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>178100</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>195900</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>17800</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
         <f t="shared" si="1"/>
         <v>3738</v>
       </c>
-      <c r="G33" s="10">
-        <v>1100</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="G33" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>4838</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="1.2" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8">
         <v>29400</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>30810</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <f t="shared" si="0"/>
         <v>1410</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
         <f t="shared" ref="F34" si="3">(0.25*D34)</f>
         <v>352.5</v>
       </c>
-      <c r="G34" s="11">
-        <v>1100</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="G34" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H34" s="8">
         <f t="shared" si="2"/>
         <v>1452.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
+    <row r="35" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <f>SUM(B1:B35)</f>
         <v>3897100</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <f>SUM(C1:C35)</f>
         <v>4213560</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="7">
         <f>SUM(D1:D35)</f>
-        <v>342440</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
+        <v>342640</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7">
         <f>SUM(H1:H35)</f>
-        <v>112846.3</v>
+        <v>112888.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>43622</v>
       </c>
@@ -2700,7 +2960,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43624</v>
       </c>
@@ -2708,7 +2968,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43625</v>
       </c>
@@ -2716,7 +2976,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43626</v>
       </c>
@@ -2724,7 +2984,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43627</v>
       </c>
@@ -2732,10 +2992,10 @@
         <v>8200</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43630</v>
       </c>
@@ -2743,7 +3003,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43631</v>
       </c>
@@ -2751,7 +3011,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43632</v>
       </c>
@@ -2759,7 +3019,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43637</v>
       </c>
@@ -2767,7 +3027,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43641</v>
       </c>
@@ -2775,7 +3035,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43645</v>
       </c>
@@ -2783,7 +3043,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2794,39 +3054,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>43617</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>43646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>3982</v>
@@ -2842,9 +3103,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>54948</v>
@@ -2860,7 +3121,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>38</v>
       </c>
@@ -2870,5 +3131,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>